--- a/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina64_Order_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A963F124-B539-4E9C-B74B-AC93FDA6E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B71AB-BE10-45B5-843F-8E2484D3191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP отчет для Выпечки" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>OLAP отчет для Выпечки</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Круассан куб со смородиновым курдом</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>dsgsdgsdfgs</t>
   </si>
 </sst>
 </file>
@@ -468,20 +474,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +773,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +792,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -839,10 +845,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +858,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,10 +921,10 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>139</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -928,10 +934,10 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>110</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2">
         <v>114</v>
       </c>
@@ -991,10 +997,10 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>139</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1004,10 +1010,10 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>118</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2">
         <v>109</v>
       </c>
@@ -1067,10 +1073,10 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>121</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1080,10 +1086,10 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2">
         <v>125</v>
       </c>
@@ -1143,10 +1149,10 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>48</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1156,10 +1162,10 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2">
         <v>22</v>
       </c>
@@ -1215,10 +1221,10 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>69</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1228,10 +1234,10 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>95</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2">
         <v>48</v>
       </c>
@@ -1287,10 +1293,10 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>192</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1300,10 +1306,10 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2">
         <v>96</v>
       </c>
@@ -1363,10 +1369,10 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>123</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1376,10 +1382,10 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2">
         <v>57</v>
       </c>
@@ -1439,10 +1445,10 @@
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1452,10 +1458,10 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>15</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2">
         <v>18</v>
       </c>
@@ -1515,10 +1521,10 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>312</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1528,10 +1534,10 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>196</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2">
         <v>108</v>
       </c>
@@ -1591,10 +1597,10 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>35</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1604,10 +1610,10 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="7">
-        <v>30</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="I15" s="4">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="2">
         <v>30</v>
       </c>
@@ -1667,10 +1673,10 @@
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1680,10 +1686,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2">
         <v>23</v>
       </c>
@@ -1743,10 +1749,10 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1756,10 +1762,10 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>36</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2">
         <v>26</v>
       </c>
@@ -1819,10 +1825,10 @@
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>70</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1832,10 +1838,10 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>53</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2">
         <v>47</v>
       </c>
@@ -1895,10 +1901,10 @@
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>218</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1908,10 +1914,10 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>125</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2">
         <v>124</v>
       </c>
@@ -1971,10 +1977,10 @@
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1984,10 +1990,10 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2">
         <v>6</v>
       </c>
@@ -2047,10 +2053,10 @@
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2060,10 +2066,10 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>24</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2">
         <v>14</v>
       </c>
@@ -2123,10 +2129,10 @@
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>22</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2136,10 +2142,10 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2">
         <v>23</v>
       </c>
@@ -2199,10 +2205,10 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2212,10 +2218,10 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>117</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2">
         <v>97</v>
       </c>
@@ -2271,10 +2277,10 @@
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>38</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2284,10 +2290,10 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2">
         <v>56</v>
       </c>
@@ -2343,10 +2349,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>287</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2356,10 +2362,10 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>192</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2">
         <v>130</v>
       </c>
@@ -2419,10 +2425,10 @@
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>94</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2432,10 +2438,10 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>50</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2">
         <v>61</v>
       </c>
@@ -2495,10 +2501,10 @@
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>21</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2508,10 +2514,10 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>16</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2">
         <v>25</v>
       </c>
@@ -2571,10 +2577,10 @@
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>25</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2584,10 +2590,10 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>44</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2">
         <v>39</v>
       </c>
@@ -2647,10 +2653,10 @@
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>13</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2660,10 +2666,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <v>12</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2">
         <v>25</v>
       </c>
@@ -2723,10 +2729,10 @@
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>98</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2736,10 +2742,10 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>69</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2">
         <v>69</v>
       </c>
@@ -2799,10 +2805,10 @@
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>36</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2812,10 +2818,10 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>33</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
@@ -2875,10 +2881,10 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2888,10 +2894,10 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2">
         <v>21</v>
       </c>
@@ -2951,10 +2957,10 @@
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>23</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2964,10 +2970,10 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>23</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2">
         <v>30</v>
       </c>
@@ -3027,10 +3033,10 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>42</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3040,10 +3046,10 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <v>27</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
@@ -3097,10 +3103,10 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>42</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3110,10 +3116,10 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <v>33</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2">
         <v>89</v>
       </c>
@@ -3173,10 +3179,10 @@
       <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>129</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3186,10 +3192,10 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>80</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2">
         <v>57</v>
       </c>
@@ -3249,10 +3255,10 @@
       <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>39</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3262,10 +3268,10 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <v>21</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2">
         <v>32</v>
       </c>
@@ -3325,10 +3331,10 @@
       <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>117</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3338,10 +3344,10 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <v>51</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2">
         <v>95</v>
       </c>
@@ -3401,10 +3407,10 @@
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>64</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3414,10 +3420,10 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2">
         <v>45</v>
       </c>
@@ -3477,13 +3483,13 @@
       <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3517,10 +3523,10 @@
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3530,10 +3536,10 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>36</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2">
         <v>19</v>
       </c>
@@ -3589,10 +3595,10 @@
       <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3602,10 +3608,10 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>62</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2">
         <v>58</v>
       </c>
@@ -3665,10 +3671,10 @@
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>53</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3678,10 +3684,10 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2">
         <v>29</v>
       </c>
@@ -3737,10 +3743,10 @@
       <c r="C44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>106</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3750,10 +3756,10 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <v>88</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2">
         <v>80</v>
       </c>
@@ -3813,10 +3819,10 @@
       <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>27</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3826,10 +3832,10 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <v>26</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2">
         <v>17</v>
       </c>
@@ -3883,10 +3889,10 @@
       <c r="C46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>38</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3896,10 +3902,10 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <v>26</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
@@ -3944,169 +3950,241 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="4">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2">
+        <v>62</v>
+      </c>
+      <c r="G47" s="2">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2">
+        <v>150</v>
+      </c>
+      <c r="I47" s="4">
+        <v>26</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="2">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2">
+        <v>92</v>
+      </c>
+      <c r="N47" s="2">
+        <v>25</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>91</v>
+      </c>
+      <c r="R47" s="2">
+        <v>65</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" s="2">
+        <v>23</v>
+      </c>
+      <c r="W47" s="2">
+        <v>19</v>
+      </c>
+      <c r="X47" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6">
         <v>3270</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="3">
+      <c r="E48" s="6"/>
+      <c r="F48" s="3">
         <v>3604</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>1635</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="3">
         <v>6164</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="6">
         <v>2283</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="3">
+      <c r="J48" s="6"/>
+      <c r="K48" s="3">
         <v>2142</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="3">
         <v>2052</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="3">
         <v>3908</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <v>1751</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O48" s="3">
         <v>572</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="3">
         <v>2693</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q48" s="3">
         <v>5855</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R48" s="3">
         <v>3409</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S48" s="3">
         <v>1556</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T48" s="3">
         <v>556</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U48" s="3">
         <v>3411</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V48" s="3">
         <v>2120</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W48" s="3">
         <v>2344</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X48" s="3">
         <v>2876</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y48" s="3">
         <v>2943</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z48" s="3">
         <v>55144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+  <mergeCells count="92">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina64_Order_v2\Отчеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina_Orders_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B71AB-BE10-45B5-843F-8E2484D3191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4377C1-C17F-4B52-B637-A183625D7B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP отчет для Выпечки" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>OLAP отчет для Выпечки</t>
   </si>
@@ -353,12 +353,6 @@
   </si>
   <si>
     <t>Круассан куб со смородиновым курдом</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>dsgsdgsdfgs</t>
   </si>
 </sst>
 </file>
@@ -474,20 +468,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +767,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,43 +786,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -845,10 +839,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,10 +852,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -921,10 +915,10 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>139</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -934,10 +928,10 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>110</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="2">
         <v>114</v>
       </c>
@@ -997,10 +991,10 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>139</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1010,10 +1004,10 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>118</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2">
         <v>109</v>
       </c>
@@ -1073,10 +1067,10 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>121</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1086,10 +1080,10 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>70</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="2">
         <v>125</v>
       </c>
@@ -1149,10 +1143,10 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>48</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1162,10 +1156,10 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>42</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2">
         <v>22</v>
       </c>
@@ -1221,10 +1215,10 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>69</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1234,10 +1228,10 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <v>95</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2">
         <v>48</v>
       </c>
@@ -1293,10 +1287,10 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>192</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1306,10 +1300,10 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>107</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2">
         <v>96</v>
       </c>
@@ -1369,10 +1363,10 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>123</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1382,10 +1376,10 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="7">
         <v>65</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2">
         <v>57</v>
       </c>
@@ -1445,10 +1439,10 @@
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1458,10 +1452,10 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>15</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2">
         <v>18</v>
       </c>
@@ -1521,10 +1515,10 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>312</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1534,10 +1528,10 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <v>196</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2">
         <v>108</v>
       </c>
@@ -1597,10 +1591,10 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1610,10 +1604,10 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="4">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="I15" s="7">
+        <v>30</v>
+      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="2">
         <v>30</v>
       </c>
@@ -1673,10 +1667,10 @@
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>27</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1686,10 +1680,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>12</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2">
         <v>23</v>
       </c>
@@ -1749,10 +1743,10 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>78</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1762,10 +1756,10 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <v>36</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="2">
         <v>26</v>
       </c>
@@ -1825,10 +1819,10 @@
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>70</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1838,10 +1832,10 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7">
         <v>53</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="2">
         <v>47</v>
       </c>
@@ -1901,10 +1895,10 @@
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>218</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1914,10 +1908,10 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="7">
         <v>125</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="2">
         <v>124</v>
       </c>
@@ -1977,10 +1971,10 @@
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>9</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1990,10 +1984,10 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>13</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="2">
         <v>6</v>
       </c>
@@ -2053,10 +2047,10 @@
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="7">
         <v>28</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2066,10 +2060,10 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="7">
         <v>24</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="2">
         <v>14</v>
       </c>
@@ -2129,10 +2123,10 @@
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="7">
         <v>22</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2142,10 +2136,10 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="7">
         <v>13</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="2">
         <v>23</v>
       </c>
@@ -2205,10 +2199,10 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="7">
         <v>200</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2218,10 +2212,10 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="7">
         <v>117</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="2">
         <v>97</v>
       </c>
@@ -2277,10 +2271,10 @@
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <v>38</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2290,10 +2284,10 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>33</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2">
         <v>56</v>
       </c>
@@ -2349,10 +2343,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <v>287</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2362,10 +2356,10 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="7">
         <v>192</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="2">
         <v>130</v>
       </c>
@@ -2425,10 +2419,10 @@
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>94</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2438,10 +2432,10 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>50</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="2">
         <v>61</v>
       </c>
@@ -2501,10 +2495,10 @@
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="7">
         <v>21</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2514,10 +2508,10 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="7">
         <v>16</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="2">
         <v>25</v>
       </c>
@@ -2577,10 +2571,10 @@
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="7">
         <v>25</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2590,10 +2584,10 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="7">
         <v>44</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="2">
         <v>39</v>
       </c>
@@ -2653,10 +2647,10 @@
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>13</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2666,10 +2660,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="7">
         <v>12</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="2">
         <v>25</v>
       </c>
@@ -2729,10 +2723,10 @@
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="7">
         <v>98</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2742,10 +2736,10 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="7">
         <v>69</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="2">
         <v>69</v>
       </c>
@@ -2805,10 +2799,10 @@
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="7">
         <v>36</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2818,10 +2812,10 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="7">
         <v>33</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
@@ -2881,10 +2875,10 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="7">
         <v>25</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2894,10 +2888,10 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="7">
         <v>20</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="2">
         <v>21</v>
       </c>
@@ -2957,10 +2951,10 @@
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="7">
         <v>23</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2970,10 +2964,10 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="7">
         <v>23</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="2">
         <v>30</v>
       </c>
@@ -3033,10 +3027,10 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="7">
         <v>42</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3046,10 +3040,10 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="7">
         <v>27</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
@@ -3103,10 +3097,10 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="7">
         <v>42</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3116,10 +3110,10 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="7">
         <v>33</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="2">
         <v>89</v>
       </c>
@@ -3179,10 +3173,10 @@
       <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="7">
         <v>129</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3192,10 +3186,10 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="7">
         <v>80</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="2">
         <v>57</v>
       </c>
@@ -3255,10 +3249,10 @@
       <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="7">
         <v>39</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3268,10 +3262,10 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="7">
         <v>21</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="2">
         <v>32</v>
       </c>
@@ -3331,10 +3325,10 @@
       <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="7">
         <v>117</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3344,10 +3338,10 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="7">
         <v>51</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="2">
         <v>95</v>
       </c>
@@ -3407,10 +3401,10 @@
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="7">
         <v>64</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3420,10 +3414,10 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="7">
         <v>50</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="2">
         <v>45</v>
       </c>
@@ -3483,13 +3477,13 @@
       <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3523,10 +3517,10 @@
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="7">
         <v>53</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3536,10 +3530,10 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="7">
         <v>36</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="2">
         <v>19</v>
       </c>
@@ -3595,10 +3589,10 @@
       <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="7">
         <v>60</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3608,10 +3602,10 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="7">
         <v>62</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="2">
         <v>58</v>
       </c>
@@ -3671,10 +3665,10 @@
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="7">
         <v>53</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3684,10 +3678,10 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="7">
         <v>50</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="2">
         <v>29</v>
       </c>
@@ -3743,10 +3737,10 @@
       <c r="C44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="7">
         <v>106</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3756,10 +3750,10 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="7">
         <v>88</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="2">
         <v>80</v>
       </c>
@@ -3819,10 +3813,10 @@
       <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="7">
         <v>27</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3832,10 +3826,10 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="7">
         <v>26</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="2">
         <v>17</v>
       </c>
@@ -3889,10 +3883,10 @@
       <c r="C46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="7">
         <v>38</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3902,10 +3896,10 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="7">
         <v>26</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
@@ -3950,241 +3944,169 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="4">
-        <v>38</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2">
-        <v>62</v>
-      </c>
-      <c r="G47" s="2">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2">
-        <v>150</v>
-      </c>
-      <c r="I47" s="4">
-        <v>26</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="2">
-        <v>17</v>
-      </c>
-      <c r="L47" s="2">
-        <v>17</v>
-      </c>
-      <c r="M47" s="2">
-        <v>92</v>
-      </c>
-      <c r="N47" s="2">
-        <v>25</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>91</v>
-      </c>
-      <c r="R47" s="2">
-        <v>65</v>
-      </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2">
-        <v>36</v>
-      </c>
-      <c r="V47" s="2">
-        <v>23</v>
-      </c>
-      <c r="W47" s="2">
-        <v>19</v>
-      </c>
-      <c r="X47" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>55</v>
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8">
+        <v>3270</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="3">
+        <v>3604</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1635</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6164</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2283</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="3">
+        <v>2142</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2052</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3908</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1751</v>
+      </c>
+      <c r="O47" s="3">
+        <v>572</v>
+      </c>
+      <c r="P47" s="3">
+        <v>2693</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>5855</v>
+      </c>
+      <c r="R47" s="3">
+        <v>3409</v>
+      </c>
+      <c r="S47" s="3">
+        <v>1556</v>
+      </c>
+      <c r="T47" s="3">
+        <v>556</v>
+      </c>
+      <c r="U47" s="3">
+        <v>3411</v>
+      </c>
+      <c r="V47" s="3">
+        <v>2120</v>
+      </c>
+      <c r="W47" s="3">
+        <v>2344</v>
+      </c>
+      <c r="X47" s="3">
+        <v>2876</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>2943</v>
       </c>
       <c r="Z47" s="3">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6">
-        <v>3270</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="3">
-        <v>3604</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1635</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6164</v>
-      </c>
-      <c r="I48" s="6">
-        <v>2283</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="3">
-        <v>2142</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2052</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3908</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1751</v>
-      </c>
-      <c r="O48" s="3">
-        <v>572</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2693</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5855</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3409</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1556</v>
-      </c>
-      <c r="T48" s="3">
-        <v>556</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3411</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2120</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2344</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2876</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2943</v>
-      </c>
-      <c r="Z48" s="3">
         <v>55144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+  <mergeCells count="90">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina_Orders_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4377C1-C17F-4B52-B637-A183625D7B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE5463-E26A-408F-BB71-E595ACCE8A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>OLAP отчет для Выпечки</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>Круассан куб со смородиновым курдом</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>sgsadgsdg</t>
+  </si>
+  <si>
+    <t>sdgsdgfsgds</t>
   </si>
 </sst>
 </file>
@@ -468,20 +477,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +776,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +795,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -839,10 +848,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +861,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,10 +924,10 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>139</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -928,10 +937,10 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>110</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2">
         <v>114</v>
       </c>
@@ -991,10 +1000,10 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>139</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1004,10 +1013,10 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>118</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2">
         <v>109</v>
       </c>
@@ -1067,10 +1076,10 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>121</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1080,10 +1089,10 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2">
         <v>125</v>
       </c>
@@ -1143,10 +1152,10 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>48</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1156,10 +1165,10 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2">
         <v>22</v>
       </c>
@@ -1215,10 +1224,10 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>69</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1228,10 +1237,10 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>95</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2">
         <v>48</v>
       </c>
@@ -1287,10 +1296,10 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>192</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1300,10 +1309,10 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2">
         <v>96</v>
       </c>
@@ -1363,10 +1372,10 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>123</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1376,10 +1385,10 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2">
         <v>57</v>
       </c>
@@ -1439,10 +1448,10 @@
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1452,10 +1461,10 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>15</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2">
         <v>18</v>
       </c>
@@ -1515,10 +1524,10 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>312</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1528,10 +1537,10 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>196</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2">
         <v>108</v>
       </c>
@@ -1591,10 +1600,10 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>35</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1604,10 +1613,10 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="7">
-        <v>30</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="I15" s="4">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="2">
         <v>30</v>
       </c>
@@ -1667,10 +1676,10 @@
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1680,10 +1689,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2">
         <v>23</v>
       </c>
@@ -1743,10 +1752,10 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1756,10 +1765,10 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>36</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2">
         <v>26</v>
       </c>
@@ -1819,10 +1828,10 @@
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>70</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1832,10 +1841,10 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>53</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2">
         <v>47</v>
       </c>
@@ -1895,10 +1904,10 @@
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>218</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1908,10 +1917,10 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>125</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2">
         <v>124</v>
       </c>
@@ -1971,10 +1980,10 @@
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1984,10 +1993,10 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2">
         <v>6</v>
       </c>
@@ -2047,10 +2056,10 @@
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2060,10 +2069,10 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>24</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2">
         <v>14</v>
       </c>
@@ -2123,10 +2132,10 @@
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>22</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2136,10 +2145,10 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2">
         <v>23</v>
       </c>
@@ -2199,10 +2208,10 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2212,10 +2221,10 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>117</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2">
         <v>97</v>
       </c>
@@ -2271,10 +2280,10 @@
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>38</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2284,10 +2293,10 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2">
         <v>56</v>
       </c>
@@ -2343,10 +2352,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>287</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2356,10 +2365,10 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>192</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2">
         <v>130</v>
       </c>
@@ -2419,10 +2428,10 @@
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>94</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2432,10 +2441,10 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>50</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2">
         <v>61</v>
       </c>
@@ -2495,10 +2504,10 @@
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>21</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2508,10 +2517,10 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>16</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2">
         <v>25</v>
       </c>
@@ -2571,10 +2580,10 @@
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>25</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2584,10 +2593,10 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>44</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2">
         <v>39</v>
       </c>
@@ -2647,10 +2656,10 @@
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>13</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2660,10 +2669,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <v>12</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2">
         <v>25</v>
       </c>
@@ -2723,10 +2732,10 @@
       <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>98</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2736,10 +2745,10 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>69</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2">
         <v>69</v>
       </c>
@@ -2799,10 +2808,10 @@
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>36</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2812,10 +2821,10 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>33</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
@@ -2875,10 +2884,10 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2888,10 +2897,10 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2">
         <v>21</v>
       </c>
@@ -2951,10 +2960,10 @@
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>23</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2964,10 +2973,10 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>23</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2">
         <v>30</v>
       </c>
@@ -3027,10 +3036,10 @@
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>42</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3040,10 +3049,10 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <v>27</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
@@ -3097,10 +3106,10 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>42</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3110,10 +3119,10 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <v>33</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2">
         <v>89</v>
       </c>
@@ -3173,10 +3182,10 @@
       <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>129</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3186,10 +3195,10 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>80</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2">
         <v>57</v>
       </c>
@@ -3249,10 +3258,10 @@
       <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>39</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3262,10 +3271,10 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <v>21</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2">
         <v>32</v>
       </c>
@@ -3325,10 +3334,10 @@
       <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>117</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3338,10 +3347,10 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <v>51</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2">
         <v>95</v>
       </c>
@@ -3401,10 +3410,10 @@
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>64</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3414,10 +3423,10 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2">
         <v>45</v>
       </c>
@@ -3477,13 +3486,13 @@
       <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3517,10 +3526,10 @@
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3530,10 +3539,10 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>36</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2">
         <v>19</v>
       </c>
@@ -3589,10 +3598,10 @@
       <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3602,10 +3611,10 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>62</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2">
         <v>58</v>
       </c>
@@ -3665,10 +3674,10 @@
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>53</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3678,10 +3687,10 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2">
         <v>29</v>
       </c>
@@ -3737,10 +3746,10 @@
       <c r="C44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>106</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3750,10 +3759,10 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <v>88</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2">
         <v>80</v>
       </c>
@@ -3813,10 +3822,10 @@
       <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>27</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3826,10 +3835,10 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <v>26</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2">
         <v>17</v>
       </c>
@@ -3883,10 +3892,10 @@
       <c r="C46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>38</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3896,10 +3905,10 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <v>26</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
@@ -3944,169 +3953,241 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="4">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2">
+        <v>62</v>
+      </c>
+      <c r="G47" s="2">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2">
+        <v>150</v>
+      </c>
+      <c r="I47" s="4">
+        <v>26</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="2">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2">
+        <v>92</v>
+      </c>
+      <c r="N47" s="2">
+        <v>25</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>91</v>
+      </c>
+      <c r="R47" s="2">
+        <v>65</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" s="2">
+        <v>23</v>
+      </c>
+      <c r="W47" s="2">
+        <v>19</v>
+      </c>
+      <c r="X47" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6">
         <v>3270</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="3">
+      <c r="E48" s="6"/>
+      <c r="F48" s="3">
         <v>3604</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>1635</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H48" s="3">
         <v>6164</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="6">
         <v>2283</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="3">
+      <c r="J48" s="6"/>
+      <c r="K48" s="3">
         <v>2142</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="3">
         <v>2052</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="3">
         <v>3908</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <v>1751</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O48" s="3">
         <v>572</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="3">
         <v>2693</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q48" s="3">
         <v>5855</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R48" s="3">
         <v>3409</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S48" s="3">
         <v>1556</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T48" s="3">
         <v>556</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U48" s="3">
         <v>3411</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V48" s="3">
         <v>2120</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W48" s="3">
         <v>2344</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X48" s="3">
         <v>2876</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y48" s="3">
         <v>2943</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z48" s="3">
         <v>55144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+  <mergeCells count="92">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina_Orders_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE5463-E26A-408F-BB71-E595ACCE8A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8EDCD-43F3-49A5-B708-45BADC7953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>OLAP отчет для Выпечки</t>
   </si>
@@ -109,9 +109,6 @@
     <t>00004</t>
   </si>
   <si>
-    <t>Курник</t>
-  </si>
-  <si>
     <t>Выпечка пекарни</t>
   </si>
   <si>
@@ -355,13 +352,7 @@
     <t>Круассан куб со смородиновым курдом</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>sgsadgsdg</t>
-  </si>
-  <si>
-    <t>sdgsdgfsgds</t>
+    <t>Курник1</t>
   </si>
 </sst>
 </file>
@@ -477,20 +468,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +767,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:E47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,43 +786,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -848,10 +839,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,10 +852,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,15 +910,15 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
         <v>139</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -937,10 +928,10 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>110</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="2">
         <v>114</v>
       </c>
@@ -992,18 +983,18 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
         <v>139</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1013,10 +1004,10 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>118</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2">
         <v>109</v>
       </c>
@@ -1068,18 +1059,18 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
         <v>121</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1089,10 +1080,10 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>70</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="2">
         <v>125</v>
       </c>
@@ -1144,18 +1135,18 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
         <v>48</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1165,10 +1156,10 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>42</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2">
         <v>22</v>
       </c>
@@ -1216,18 +1207,18 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
         <v>69</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1237,10 +1228,10 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <v>95</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2">
         <v>48</v>
       </c>
@@ -1288,18 +1279,18 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
         <v>192</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1309,10 +1300,10 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>107</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2">
         <v>96</v>
       </c>
@@ -1364,18 +1355,18 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7">
         <v>123</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1385,10 +1376,10 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="7">
         <v>65</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2">
         <v>57</v>
       </c>
@@ -1440,18 +1431,18 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1461,10 +1452,10 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>15</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2">
         <v>18</v>
       </c>
@@ -1516,18 +1507,18 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
         <v>312</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1537,10 +1528,10 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <v>196</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2">
         <v>108</v>
       </c>
@@ -1592,18 +1583,18 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1613,10 +1604,10 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="7">
         <v>30</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2">
         <v>30</v>
       </c>
@@ -1668,18 +1659,18 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7">
         <v>27</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1689,10 +1680,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>12</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2">
         <v>23</v>
       </c>
@@ -1744,18 +1735,18 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
         <v>78</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1765,10 +1756,10 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <v>36</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="2">
         <v>26</v>
       </c>
@@ -1820,18 +1811,18 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7">
         <v>70</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1841,10 +1832,10 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7">
         <v>53</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="2">
         <v>47</v>
       </c>
@@ -1896,18 +1887,18 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
         <v>218</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1917,10 +1908,10 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="7">
         <v>125</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="2">
         <v>124</v>
       </c>
@@ -1972,18 +1963,18 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7">
         <v>9</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1993,10 +1984,10 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="7">
         <v>13</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="2">
         <v>6</v>
       </c>
@@ -2048,18 +2039,18 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
         <v>28</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2069,10 +2060,10 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="7">
         <v>24</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="2">
         <v>14</v>
       </c>
@@ -2124,18 +2115,18 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7">
         <v>22</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2145,10 +2136,10 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="7">
         <v>13</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="2">
         <v>23</v>
       </c>
@@ -2200,18 +2191,18 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
         <v>200</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2221,10 +2212,10 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="7">
         <v>117</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="2">
         <v>97</v>
       </c>
@@ -2272,18 +2263,18 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="4">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
         <v>38</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2293,10 +2284,10 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>33</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2">
         <v>56</v>
       </c>
@@ -2344,18 +2335,18 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="4">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
         <v>287</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2365,10 +2356,10 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="7">
         <v>192</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="2">
         <v>130</v>
       </c>
@@ -2420,18 +2411,18 @@
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="4">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7">
         <v>94</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2441,10 +2432,10 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>50</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="2">
         <v>61</v>
       </c>
@@ -2496,18 +2487,18 @@
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="4">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7">
         <v>21</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2517,10 +2508,10 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="7">
         <v>16</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="2">
         <v>25</v>
       </c>
@@ -2572,18 +2563,18 @@
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="4">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7">
         <v>25</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2593,10 +2584,10 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="7">
         <v>44</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="2">
         <v>39</v>
       </c>
@@ -2648,18 +2639,18 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="4">
+        <v>29</v>
+      </c>
+      <c r="D29" s="7">
         <v>13</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2669,10 +2660,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="7">
         <v>12</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="2">
         <v>25</v>
       </c>
@@ -2724,18 +2715,18 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="4">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
         <v>98</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2745,10 +2736,10 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="7">
         <v>69</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="2">
         <v>69</v>
       </c>
@@ -2800,18 +2791,18 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7">
         <v>36</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2821,10 +2812,10 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="7">
         <v>33</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
@@ -2876,18 +2867,18 @@
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="4">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7">
         <v>25</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2897,10 +2888,10 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="7">
         <v>20</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="2">
         <v>21</v>
       </c>
@@ -2952,18 +2943,18 @@
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="4">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7">
         <v>23</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2973,10 +2964,10 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="7">
         <v>23</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="2">
         <v>30</v>
       </c>
@@ -3028,18 +3019,18 @@
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4">
+        <v>29</v>
+      </c>
+      <c r="D34" s="7">
         <v>42</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3049,10 +3040,10 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="7">
         <v>27</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
@@ -3098,18 +3089,18 @@
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="4">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7">
         <v>42</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3119,10 +3110,10 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="7">
         <v>33</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="2">
         <v>89</v>
       </c>
@@ -3174,18 +3165,18 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="4">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7">
         <v>129</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3195,10 +3186,10 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="7">
         <v>80</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="2">
         <v>57</v>
       </c>
@@ -3250,18 +3241,18 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="4">
+        <v>29</v>
+      </c>
+      <c r="D37" s="7">
         <v>39</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3271,10 +3262,10 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="7">
         <v>21</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="2">
         <v>32</v>
       </c>
@@ -3326,18 +3317,18 @@
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7">
         <v>117</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3347,10 +3338,10 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="7">
         <v>51</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="2">
         <v>95</v>
       </c>
@@ -3402,18 +3393,18 @@
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="4">
+        <v>29</v>
+      </c>
+      <c r="D39" s="7">
         <v>64</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3423,10 +3414,10 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="7">
         <v>50</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="2">
         <v>45</v>
       </c>
@@ -3478,21 +3469,21 @@
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3518,18 +3509,18 @@
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="4">
+        <v>29</v>
+      </c>
+      <c r="D41" s="7">
         <v>53</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3539,10 +3530,10 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="7">
         <v>36</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="2">
         <v>19</v>
       </c>
@@ -3590,18 +3581,18 @@
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="4">
+        <v>29</v>
+      </c>
+      <c r="D42" s="7">
         <v>60</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3611,10 +3602,10 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="7">
         <v>62</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="2">
         <v>58</v>
       </c>
@@ -3666,18 +3657,18 @@
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="4">
+        <v>29</v>
+      </c>
+      <c r="D43" s="7">
         <v>53</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3687,10 +3678,10 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="7">
         <v>50</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="2">
         <v>29</v>
       </c>
@@ -3738,18 +3729,18 @@
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7">
         <v>106</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="4">
-        <v>106</v>
-      </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3759,10 +3750,10 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="7">
         <v>88</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="2">
         <v>80</v>
       </c>
@@ -3814,18 +3805,18 @@
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="4">
+        <v>29</v>
+      </c>
+      <c r="D45" s="7">
         <v>27</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3835,10 +3826,10 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="7">
         <v>26</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="2">
         <v>17</v>
       </c>
@@ -3884,18 +3875,18 @@
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="4">
+        <v>29</v>
+      </c>
+      <c r="D46" s="7">
         <v>38</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3905,10 +3896,10 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="7">
         <v>26</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
@@ -3953,241 +3944,169 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="4">
-        <v>38</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2">
-        <v>62</v>
-      </c>
-      <c r="G47" s="2">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2">
-        <v>150</v>
-      </c>
-      <c r="I47" s="4">
-        <v>26</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="2">
-        <v>17</v>
-      </c>
-      <c r="L47" s="2">
-        <v>17</v>
-      </c>
-      <c r="M47" s="2">
-        <v>92</v>
-      </c>
-      <c r="N47" s="2">
-        <v>25</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>91</v>
-      </c>
-      <c r="R47" s="2">
-        <v>65</v>
-      </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2">
-        <v>36</v>
-      </c>
-      <c r="V47" s="2">
-        <v>23</v>
-      </c>
-      <c r="W47" s="2">
-        <v>19</v>
-      </c>
-      <c r="X47" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>55</v>
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8">
+        <v>3270</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="3">
+        <v>3604</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1635</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6164</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2283</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="3">
+        <v>2142</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2052</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3908</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1751</v>
+      </c>
+      <c r="O47" s="3">
+        <v>572</v>
+      </c>
+      <c r="P47" s="3">
+        <v>2693</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>5855</v>
+      </c>
+      <c r="R47" s="3">
+        <v>3409</v>
+      </c>
+      <c r="S47" s="3">
+        <v>1556</v>
+      </c>
+      <c r="T47" s="3">
+        <v>556</v>
+      </c>
+      <c r="U47" s="3">
+        <v>3411</v>
+      </c>
+      <c r="V47" s="3">
+        <v>2120</v>
+      </c>
+      <c r="W47" s="3">
+        <v>2344</v>
+      </c>
+      <c r="X47" s="3">
+        <v>2876</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>2943</v>
       </c>
       <c r="Z47" s="3">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6">
-        <v>3270</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="3">
-        <v>3604</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1635</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6164</v>
-      </c>
-      <c r="I48" s="6">
-        <v>2283</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="3">
-        <v>2142</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2052</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3908</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1751</v>
-      </c>
-      <c r="O48" s="3">
-        <v>572</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2693</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5855</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3409</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1556</v>
-      </c>
-      <c r="T48" s="3">
-        <v>556</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3411</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2120</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2344</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2876</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2943</v>
-      </c>
-      <c r="Z48" s="3">
         <v>55144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+  <mergeCells count="90">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
+++ b/Отчеты/OLAP отчет для Выпечки 29.11.2023 15.10.42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Malina_Orders_v2\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8EDCD-43F3-49A5-B708-45BADC7953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A36411-C3F7-4FC2-899F-3E604A73C503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
     <t>Круассан куб со смородиновым курдом</t>
   </si>
   <si>
-    <t>Курник1</t>
+    <t>Курник</t>
   </si>
 </sst>
 </file>
@@ -468,20 +468,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +786,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -839,10 +839,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +852,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,10 +915,10 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>139</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2">
         <v>111</v>
       </c>
@@ -928,10 +928,10 @@
       <c r="H6" s="2">
         <v>176</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>110</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2">
         <v>114</v>
       </c>
@@ -991,10 +991,10 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>139</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2">
         <v>142</v>
       </c>
@@ -1004,10 +1004,10 @@
       <c r="H7" s="2">
         <v>234</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>118</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2">
         <v>109</v>
       </c>
@@ -1067,10 +1067,10 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>121</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2">
         <v>104</v>
       </c>
@@ -1080,10 +1080,10 @@
       <c r="H8" s="2">
         <v>134</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2">
         <v>125</v>
       </c>
@@ -1143,10 +1143,10 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>48</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2">
         <v>54</v>
       </c>
@@ -1156,10 +1156,10 @@
       <c r="H9" s="2">
         <v>205</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2">
         <v>22</v>
       </c>
@@ -1215,10 +1215,10 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>69</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2">
         <v>79</v>
       </c>
@@ -1228,10 +1228,10 @@
       <c r="H10" s="2">
         <v>181</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>95</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2">
         <v>48</v>
       </c>
@@ -1287,10 +1287,10 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>192</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2">
         <v>185</v>
       </c>
@@ -1300,10 +1300,10 @@
       <c r="H11" s="2">
         <v>246</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2">
         <v>96</v>
       </c>
@@ -1363,10 +1363,10 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>123</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2">
         <v>52</v>
       </c>
@@ -1376,10 +1376,10 @@
       <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2">
         <v>57</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>14</v>
       </c>
@@ -1452,10 +1452,10 @@
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>15</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2">
         <v>18</v>
       </c>
@@ -1515,10 +1515,10 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>312</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2">
         <v>136</v>
       </c>
@@ -1528,10 +1528,10 @@
       <c r="H14" s="2">
         <v>152</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>196</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2">
         <v>108</v>
       </c>
@@ -1591,10 +1591,10 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>35</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2">
         <v>26</v>
       </c>
@@ -1604,10 +1604,10 @@
       <c r="H15" s="2">
         <v>21</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>30</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2">
         <v>30</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -1680,10 +1680,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2">
         <v>23</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2">
         <v>35</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="H17" s="2">
         <v>33</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>36</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2">
         <v>26</v>
       </c>
@@ -1819,10 +1819,10 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>70</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2">
         <v>56</v>
       </c>
@@ -1832,10 +1832,10 @@
       <c r="H18" s="2">
         <v>112</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>53</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2">
         <v>47</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>218</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2">
         <v>149</v>
       </c>
@@ -1908,10 +1908,10 @@
       <c r="H19" s="2">
         <v>254</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>125</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2">
         <v>124</v>
       </c>
@@ -1971,10 +1971,10 @@
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>9</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2">
         <v>6</v>
       </c>
@@ -1984,10 +1984,10 @@
       <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2">
         <v>6</v>
       </c>
@@ -2047,10 +2047,10 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>28</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -2060,10 +2060,10 @@
       <c r="H21" s="2">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>24</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2">
         <v>14</v>
       </c>
@@ -2123,10 +2123,10 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>22</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2">
         <v>22</v>
       </c>
@@ -2136,10 +2136,10 @@
       <c r="H22" s="2">
         <v>23</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2">
         <v>23</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>200</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2">
         <v>213</v>
       </c>
@@ -2212,10 +2212,10 @@
       <c r="H23" s="2">
         <v>586</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>117</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2">
         <v>97</v>
       </c>
@@ -2271,10 +2271,10 @@
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>38</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2">
         <v>101</v>
       </c>
@@ -2284,10 +2284,10 @@
       <c r="H24" s="2">
         <v>261</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>33</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2">
         <v>56</v>
       </c>
@@ -2343,10 +2343,10 @@
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>287</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2">
         <v>246</v>
       </c>
@@ -2356,10 +2356,10 @@
       <c r="H25" s="2">
         <v>501</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>192</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2">
         <v>130</v>
       </c>
@@ -2419,10 +2419,10 @@
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>94</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2">
         <v>63</v>
       </c>
@@ -2432,10 +2432,10 @@
       <c r="H26" s="2">
         <v>89</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>50</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2">
         <v>61</v>
       </c>
@@ -2495,10 +2495,10 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>21</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2">
         <v>31</v>
       </c>
@@ -2508,10 +2508,10 @@
       <c r="H27" s="2">
         <v>45</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>16</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2">
         <v>25</v>
       </c>
@@ -2571,10 +2571,10 @@
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>25</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2">
         <v>45</v>
       </c>
@@ -2584,10 +2584,10 @@
       <c r="H28" s="2">
         <v>73</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>44</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2">
         <v>39</v>
       </c>
@@ -2647,10 +2647,10 @@
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>13</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2">
         <v>27</v>
       </c>
@@ -2660,10 +2660,10 @@
       <c r="H29" s="2">
         <v>35</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <v>12</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2">
         <v>25</v>
       </c>
@@ -2723,10 +2723,10 @@
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>98</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2">
         <v>257</v>
       </c>
@@ -2736,10 +2736,10 @@
       <c r="H30" s="2">
         <v>527</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>69</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2">
         <v>69</v>
       </c>
@@ -2799,10 +2799,10 @@
       <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>36</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2">
         <v>135</v>
       </c>
@@ -2812,10 +2812,10 @@
       <c r="H31" s="2">
         <v>156</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>33</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
@@ -2875,10 +2875,10 @@
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2">
         <v>68</v>
       </c>
@@ -2888,10 +2888,10 @@
       <c r="H32" s="2">
         <v>85</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2">
         <v>21</v>
       </c>
@@ -2951,10 +2951,10 @@
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>23</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2">
         <v>32</v>
       </c>
@@ -2964,10 +2964,10 @@
       <c r="H33" s="2">
         <v>38</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>23</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2">
         <v>30</v>
       </c>
@@ -3027,10 +3027,10 @@
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>42</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2">
         <v>45</v>
       </c>
@@ -3040,10 +3040,10 @@
       <c r="H34" s="2">
         <v>57</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <v>27</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>42</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2">
         <v>61</v>
       </c>
@@ -3110,10 +3110,10 @@
       <c r="H35" s="2">
         <v>46</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <v>33</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2">
         <v>89</v>
       </c>
@@ -3173,10 +3173,10 @@
       <c r="C36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>129</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2">
         <v>216</v>
       </c>
@@ -3186,10 +3186,10 @@
       <c r="H36" s="2">
         <v>318</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>80</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2">
         <v>57</v>
       </c>
@@ -3249,10 +3249,10 @@
       <c r="C37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>39</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2">
         <v>47</v>
       </c>
@@ -3262,10 +3262,10 @@
       <c r="H37" s="2">
         <v>49</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <v>21</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2">
         <v>32</v>
       </c>
@@ -3325,10 +3325,10 @@
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>117</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2">
         <v>164</v>
       </c>
@@ -3338,10 +3338,10 @@
       <c r="H38" s="2">
         <v>219</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <v>51</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2">
         <v>95</v>
       </c>
@@ -3401,10 +3401,10 @@
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>64</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2">
         <v>62</v>
       </c>
@@ -3414,10 +3414,10 @@
       <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2">
         <v>45</v>
       </c>
@@ -3477,13 +3477,13 @@
       <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3517,10 +3517,10 @@
       <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2">
         <v>66</v>
       </c>
@@ -3530,10 +3530,10 @@
       <c r="H41" s="2">
         <v>182</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>36</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2">
         <v>19</v>
       </c>
@@ -3589,10 +3589,10 @@
       <c r="C42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2">
         <v>195</v>
       </c>
@@ -3602,10 +3602,10 @@
       <c r="H42" s="2">
         <v>158</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>62</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2">
         <v>58</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>53</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2">
         <v>86</v>
       </c>
@@ -3678,10 +3678,10 @@
       <c r="H43" s="2">
         <v>233</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2">
         <v>29</v>
       </c>
@@ -3737,10 +3737,10 @@
       <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>106</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2">
         <v>114</v>
       </c>
@@ -3750,10 +3750,10 @@
       <c r="H44" s="2">
         <v>167</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <v>88</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2">
         <v>80</v>
       </c>
@@ -3813,10 +3813,10 @@
       <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>27</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2">
         <v>66</v>
       </c>
@@ -3826,10 +3826,10 @@
       <c r="H45" s="2">
         <v>160</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <v>26</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2">
         <v>17</v>
       </c>
@@ -3883,10 +3883,10 @@
       <c r="C46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>38</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2">
         <v>62</v>
       </c>
@@ -3896,10 +3896,10 @@
       <c r="H46" s="2">
         <v>150</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <v>26</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2">
         <v>17</v>
       </c>
@@ -3944,15 +3944,15 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6">
         <v>3270</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="3">
         <v>3604</v>
       </c>
@@ -3962,10 +3962,10 @@
       <c r="H47" s="3">
         <v>6164</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <v>2283</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="3">
         <v>2142</v>
       </c>
@@ -4017,6 +4017,89 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="D46:E46"/>
@@ -4024,89 +4107,6 @@
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
